--- a/RAnalysis/Data/Flow.rates.xlsx
+++ b/RAnalysis/Data/Flow.rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samjg\Documents\My_Projects\Inragenerational_thresholds_OA\RAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A59E8E-8B0B-41A7-8FB7-55570E72FC4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C2B624-89EB-4B34-8491-0168C84E5528}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{0EBA9A0A-F69F-410F-A8FD-B5357F2350B2}"/>
+    <workbookView xWindow="4110" yWindow="1170" windowWidth="14775" windowHeight="10005" xr2:uid="{0EBA9A0A-F69F-410F-A8FD-B5357F2350B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -39,12 +40,6 @@
   </si>
   <si>
     <t>Tray.ID</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Treatment.history</t>
   </si>
   <si>
     <t>Day</t>
@@ -80,16 +75,10 @@
     <t>0_1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Flow.ml</t>
   </si>
   <si>
     <t>Flow.sec</t>
-  </si>
-  <si>
-    <t>Flow.LPM</t>
   </si>
   <si>
     <t>Flow.cycles.hr</t>
@@ -99,6 +88,15 @@
   </si>
   <si>
     <t>Tank.ID</t>
+  </si>
+  <si>
+    <t>DAY5</t>
+  </si>
+  <si>
+    <t>DAY6</t>
+  </si>
+  <si>
+    <t>Flow.mLPM</t>
   </si>
 </sst>
 </file>
@@ -453,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208EABC4-C397-41D1-9A07-B15BC63CDF74}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,54 +462,46 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20190713</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -520,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>6.4</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>6.4</v>
+        <f>(60/H2)*G2</f>
+        <v>25.6</v>
       </c>
       <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <f>(60/J2)*I2</f>
-        <v>25.6</v>
-      </c>
-      <c r="L2">
-        <f>(60*K2)/175</f>
+        <f>(60*I2)/175</f>
         <v>8.7771428571428576</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20190713</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -560,38 +544,32 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>6.2</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>6.2</v>
+        <f t="shared" ref="I3:I109" si="0">(60/H3)*G3</f>
+        <v>24.8</v>
       </c>
       <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K37" si="0">(60/J3)*I3</f>
-        <v>24.8</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L37" si="1">(60*K3)/175</f>
+        <f t="shared" ref="J3:J37" si="1">(60*I3)/175</f>
         <v>8.5028571428571436</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20190713</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -600,38 +578,32 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>6.5</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L4">
         <f t="shared" si="1"/>
         <v>8.9142857142857146</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20190713</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -640,38 +612,32 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L5">
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20190713</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -680,38 +646,32 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>6.5</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L6">
         <f t="shared" si="1"/>
         <v>8.9142857142857146</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20190713</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -720,38 +680,32 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="L7">
         <f t="shared" si="1"/>
         <v>8.2285714285714278</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20190713</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -760,38 +714,32 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>7.1</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>7.1</v>
+        <f t="shared" si="0"/>
+        <v>28.4</v>
       </c>
       <c r="J8">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>28.4</v>
-      </c>
-      <c r="L8">
         <f t="shared" si="1"/>
         <v>9.7371428571428567</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20190713</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -800,38 +748,32 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L9">
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>20190713</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -840,38 +782,32 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="J10">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="L10">
         <f t="shared" si="1"/>
         <v>8.2285714285714278</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>20190713</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -880,38 +816,32 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>6.4</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <f t="shared" si="0"/>
+        <v>25.6</v>
       </c>
       <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-      <c r="L11">
         <f t="shared" si="1"/>
         <v>8.7771428571428576</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>20190713</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -920,38 +850,32 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>7.5</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>15</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L12">
         <f t="shared" si="1"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20190713</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -960,38 +884,32 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>6.5</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L13">
         <f t="shared" si="1"/>
         <v>8.9142857142857146</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>20190713</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1000,38 +918,32 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>6.8</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>6.8</v>
+        <f t="shared" si="0"/>
+        <v>27.2</v>
       </c>
       <c r="J14">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>27.2</v>
-      </c>
-      <c r="L14">
         <f t="shared" si="1"/>
         <v>9.3257142857142856</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20190713</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1040,38 +952,32 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>6.2</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>6.2</v>
+        <f t="shared" si="0"/>
+        <v>24.8</v>
       </c>
       <c r="J15">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>24.8</v>
-      </c>
-      <c r="L15">
         <f t="shared" si="1"/>
         <v>8.5028571428571436</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20190713</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1080,38 +986,32 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>5.7</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
       </c>
       <c r="I16">
-        <v>5.7</v>
+        <f t="shared" si="0"/>
+        <v>22.8</v>
       </c>
       <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>22.8</v>
-      </c>
-      <c r="L16">
         <f t="shared" si="1"/>
         <v>7.8171428571428567</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20190713</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1120,38 +1020,32 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>6.5</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L17">
         <f t="shared" si="1"/>
         <v>8.9142857142857146</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20190713</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1160,38 +1054,32 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>5.8</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>5.8</v>
+        <f t="shared" si="0"/>
+        <v>23.2</v>
       </c>
       <c r="J18">
-        <v>15</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>23.2</v>
-      </c>
-      <c r="L18">
         <f t="shared" si="1"/>
         <v>7.9542857142857146</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20190713</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1200,38 +1088,32 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>6.1</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>6.1</v>
+        <f t="shared" si="0"/>
+        <v>24.4</v>
       </c>
       <c r="J19">
-        <v>15</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>24.4</v>
-      </c>
-      <c r="L19">
         <f t="shared" si="1"/>
         <v>8.3657142857142865</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20190713</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1240,38 +1122,32 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>6.6</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>6.6</v>
+        <f t="shared" si="0"/>
+        <v>26.4</v>
       </c>
       <c r="J20">
-        <v>15</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>26.4</v>
-      </c>
-      <c r="L20">
         <f t="shared" si="1"/>
         <v>9.0514285714285716</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20190713</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1280,38 +1156,32 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J21">
-        <v>15</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L21">
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20190713</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1320,38 +1190,32 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>6.4</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>6.4</v>
+        <f t="shared" si="0"/>
+        <v>25.6</v>
       </c>
       <c r="J22">
-        <v>15</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-      <c r="L22">
         <f t="shared" si="1"/>
         <v>8.7771428571428576</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20190713</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1360,38 +1224,32 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>7.1</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>7.1</v>
+        <f t="shared" si="0"/>
+        <v>28.4</v>
       </c>
       <c r="J23">
-        <v>15</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>28.4</v>
-      </c>
-      <c r="L23">
         <f t="shared" si="1"/>
         <v>9.7371428571428567</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20190713</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1400,38 +1258,32 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J24">
-        <v>15</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L24">
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20190713</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1440,38 +1292,32 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="J25">
-        <v>15</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L25">
         <f t="shared" si="1"/>
         <v>6.8571428571428568</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20190713</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -1480,38 +1326,32 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>5.2</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>5.2</v>
+        <f t="shared" si="0"/>
+        <v>20.8</v>
       </c>
       <c r="J26">
-        <v>15</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>20.8</v>
-      </c>
-      <c r="L26">
         <f t="shared" si="1"/>
         <v>7.1314285714285717</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20190713</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -1520,38 +1360,32 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>6.8</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>6.8</v>
+        <f t="shared" si="0"/>
+        <v>27.2</v>
       </c>
       <c r="J27">
-        <v>15</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>27.2</v>
-      </c>
-      <c r="L27">
         <f t="shared" si="1"/>
         <v>9.3257142857142856</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20190713</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1560,38 +1394,32 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>6.8</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
       </c>
       <c r="I28">
-        <v>6.8</v>
+        <f t="shared" si="0"/>
+        <v>27.2</v>
       </c>
       <c r="J28">
-        <v>15</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>27.2</v>
-      </c>
-      <c r="L28">
         <f t="shared" si="1"/>
         <v>9.3257142857142856</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>20190713</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1600,38 +1428,32 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>5.8</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>5.8</v>
+        <f t="shared" si="0"/>
+        <v>23.2</v>
       </c>
       <c r="J29">
-        <v>15</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>23.2</v>
-      </c>
-      <c r="L29">
         <f t="shared" si="1"/>
         <v>7.9542857142857146</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>20190713</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -1640,38 +1462,32 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>5.7</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
       </c>
       <c r="I30">
-        <v>5.7</v>
+        <f t="shared" si="0"/>
+        <v>22.8</v>
       </c>
       <c r="J30">
-        <v>15</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>22.8</v>
-      </c>
-      <c r="L30">
         <f t="shared" si="1"/>
         <v>7.8171428571428567</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20190713</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -1680,38 +1496,32 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>6.5</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J31">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L31">
         <f t="shared" si="1"/>
         <v>8.9142857142857146</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>20190713</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -1720,38 +1530,32 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="J32">
-        <v>15</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="L32">
         <f t="shared" si="1"/>
         <v>8.2285714285714278</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>20190713</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
@@ -1760,38 +1564,32 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>6.5</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J33">
-        <v>15</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L33">
         <f t="shared" si="1"/>
         <v>8.9142857142857146</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>20190713</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -1800,38 +1598,32 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J34">
-        <v>15</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L34">
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>20190713</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
         <v>34</v>
@@ -1840,38 +1632,32 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>5.5</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="J35">
-        <v>15</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="L35">
         <f t="shared" si="1"/>
         <v>7.5428571428571427</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20190713</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
@@ -1880,38 +1666,32 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>5.5</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="J36">
-        <v>15</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="L36">
         <f t="shared" si="1"/>
         <v>7.5428571428571427</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>20190713</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -1920,30 +1700,2472 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J37">
+        <f>(60*I37)/175</f>
+        <v>8.2285714285714278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>5.5</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J38">
+        <f>(60*I38)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>4.75</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <f>(60*I39)/175</f>
+        <v>6.5142857142857142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <f>(60*I40)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>5.75</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J41">
+        <f>(60*I41)/175</f>
+        <v>7.8857142857142861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>5.4</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="J42">
+        <f>(60*I42)/175</f>
+        <v>7.4057142857142857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>4.5</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J43">
+        <f>(60*I43)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>6.4</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="J44">
+        <f>(60*I44)/175</f>
+        <v>8.7771428571428576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G45">
+        <v>4.8</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>19.2</v>
+      </c>
+      <c r="J45">
+        <f>(60*I45)/175</f>
+        <v>6.5828571428571427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>4.5</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J46">
+        <f>(60*I46)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>4.5</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <f>(60*I47)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>5.4</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="J48">
+        <f>(60*I48)/175</f>
+        <v>7.4057142857142857</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J49">
+        <f>(60*I49)/175</f>
+        <v>6.9942857142857147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>5.15</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>20.6</v>
+      </c>
+      <c r="J50">
+        <f>(60*I50)/175</f>
+        <v>7.0628571428571432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1">
         <v>14</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <f>(60*I51)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="J52">
+        <f>(60*I52)/175</f>
+        <v>5.4857142857142858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1">
         <v>16</v>
       </c>
-      <c r="I37">
-        <v>6</v>
-      </c>
-      <c r="J37">
-        <v>15</v>
-      </c>
-      <c r="K37">
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>5.5</v>
+      </c>
+      <c r="H53">
+        <v>15</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J53">
+        <f>(60*I53)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>4.8</v>
+      </c>
+      <c r="H54">
+        <v>15</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>19.2</v>
+      </c>
+      <c r="J54">
+        <f>(60*I54)/175</f>
+        <v>6.5828571428571427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="1">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J55">
+        <f>(60*I55)/175</f>
+        <v>5.4857142857142858</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>5.6</v>
+      </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+      <c r="J56">
+        <f>(60*I56)/175</f>
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>15</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="1"/>
+      <c r="J57">
+        <f>(60*I57)/175</f>
         <v>8.2285714285714278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1">
+        <v>21</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H58">
+        <v>15</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J58">
+        <f>(60*I58)/175</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>15</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <f>(60*I59)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="1">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>5.9</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+      <c r="J60">
+        <f>(60*I60)/175</f>
+        <v>8.0914285714285707</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>24</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>6.4</v>
+      </c>
+      <c r="H61">
+        <v>15</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="J61">
+        <f>(60*I61)/175</f>
+        <v>8.7771428571428576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1">
+        <v>25</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>3.4</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+      <c r="J62">
+        <f>(60*I62)/175</f>
+        <v>4.6628571428571428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>5.5</v>
+      </c>
+      <c r="H63">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J63">
+        <f>(60*I63)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
+        <v>5.5</v>
+      </c>
+      <c r="H64">
+        <v>15</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J64">
+        <f>(60*I64)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>5.5</v>
+      </c>
+      <c r="H65">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J65">
+        <f>(60*I65)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1">
+        <v>29</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H66">
+        <v>15</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J66">
+        <f>(60*I66)/175</f>
+        <v>6.9942857142857147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>5.9</v>
+      </c>
+      <c r="H67">
+        <v>15</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+      <c r="J67">
+        <f>(60*I67)/175</f>
+        <v>8.0914285714285707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1">
+        <v>31</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>5.8</v>
+      </c>
+      <c r="H68">
+        <v>15</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>23.2</v>
+      </c>
+      <c r="J68">
+        <f>(60*I68)/175</f>
+        <v>7.9542857142857146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1">
+        <v>32</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>4.8</v>
+      </c>
+      <c r="H69">
+        <v>15</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>19.2</v>
+      </c>
+      <c r="J69">
+        <f>(60*I69)/175</f>
+        <v>6.5828571428571427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1">
+        <v>33</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>6.1</v>
+      </c>
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+      <c r="J70">
+        <f>(60*I70)/175</f>
+        <v>8.3657142857142865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>5.8</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>23.2</v>
+      </c>
+      <c r="J71">
+        <f>(60*I71)/175</f>
+        <v>7.9542857142857146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1">
+        <v>35</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J72">
+        <f>(60*I72)/175</f>
+        <v>5.4857142857142858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>20190729</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1">
+        <v>36</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>5.6</v>
+      </c>
+      <c r="H73">
+        <v>15</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+      <c r="J73">
+        <f>(60*I73)/175</f>
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>15</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J74">
+        <f>(60*I74)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>4.5</v>
+      </c>
+      <c r="H75">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J75">
+        <f>(60*I75)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>15</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J76">
+        <f>(60*I76)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>5.5</v>
+      </c>
+      <c r="H77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J77">
+        <f>(60*I77)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>5.2</v>
+      </c>
+      <c r="H78">
+        <v>15</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="0"/>
+        <v>20.8</v>
+      </c>
+      <c r="J78">
+        <f>(60*I78)/175</f>
+        <v>7.1314285714285717</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>4.5</v>
+      </c>
+      <c r="H79">
+        <v>15</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J79">
+        <f>(60*I79)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J80">
+        <f>(60*I80)/175</f>
+        <v>8.2285714285714278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="1">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H81">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J81">
+        <f>(60*I81)/175</f>
+        <v>6.0342857142857147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="1">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>4.2</v>
+      </c>
+      <c r="H82">
+        <v>15</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="J82">
+        <f>(60*I82)/175</f>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="1">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>4.5</v>
+      </c>
+      <c r="H83">
+        <v>15</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J83">
+        <f>(60*I83)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1">
+        <v>11</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>5.5</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J84">
+        <f>(60*I84)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="1">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>4.5</v>
+      </c>
+      <c r="H85">
+        <v>15</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J85">
+        <f>(60*I85)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1">
+        <v>13</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>15</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J86">
+        <f>(60*I86)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="1">
+        <v>14</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H87">
+        <v>15</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J87">
+        <f>(60*I87)/175</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="1">
+        <v>15</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>6.4</v>
+      </c>
+      <c r="H88">
+        <v>15</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="J88">
+        <f>(60*I88)/175</f>
+        <v>8.7771428571428576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="1">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H89">
+        <v>15</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J89">
+        <f>(60*I89)/175</f>
+        <v>6.9942857142857147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="1">
+        <v>17</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H90">
+        <v>15</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J90">
+        <f>(60*I90)/175</f>
+        <v>6.3085714285714287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="1">
+        <v>18</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>15</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J91">
+        <f>(60*I91)/175</f>
+        <v>5.4857142857142858</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="1">
+        <v>19</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>5.5</v>
+      </c>
+      <c r="H92">
+        <v>15</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J92">
+        <f>(60*I92)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="1">
+        <v>20</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>5.5</v>
+      </c>
+      <c r="H93">
+        <v>15</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J93">
+        <f>(60*I93)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="1">
+        <v>21</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H94">
+        <v>15</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J94">
+        <f>(60*I94)/175</f>
+        <v>6.0342857142857147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="1">
+        <v>22</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95">
+        <v>4.5</v>
+      </c>
+      <c r="H95">
+        <v>15</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J95">
+        <f>(60*I95)/175</f>
+        <v>6.1714285714285717</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="1">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96">
+        <v>5.5</v>
+      </c>
+      <c r="H96">
+        <v>15</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J96">
+        <f>(60*I96)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="1">
+        <v>24</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>6.4</v>
+      </c>
+      <c r="H97">
+        <v>15</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="J97">
+        <f>(60*I97)/175</f>
+        <v>8.7771428571428576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1">
+        <v>25</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>15</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J98">
+        <f>(60*I98)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="1">
+        <v>26</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99">
+        <v>5.5</v>
+      </c>
+      <c r="H99">
+        <v>15</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J99">
+        <f>(60*I99)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="1">
+        <v>27</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100">
+        <v>5.4</v>
+      </c>
+      <c r="H100">
+        <v>15</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="J100">
+        <f>(60*I100)/175</f>
+        <v>7.4057142857142857</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="1">
+        <v>28</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101">
+        <v>5</v>
+      </c>
+      <c r="H101">
+        <v>15</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J101">
+        <f>(60*I101)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="1">
+        <v>29</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H102">
+        <v>15</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J102">
+        <f>(60*I102)/175</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="1">
+        <v>30</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103">
+        <v>5.5</v>
+      </c>
+      <c r="H103">
+        <v>15</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J103">
+        <f>(60*I103)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="1">
+        <v>31</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104">
+        <v>15</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J104">
+        <f>(60*I104)/175</f>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="1">
+        <v>32</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J105">
+        <f>(60*I105)/175</f>
+        <v>5.4857142857142858</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="1">
+        <v>33</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106">
+        <v>5.6</v>
+      </c>
+      <c r="H106">
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+      <c r="J106">
+        <f>(60*I106)/175</f>
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="1">
+        <v>34</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H107">
+        <v>15</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J107">
+        <f>(60*I107)/175</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1">
+        <v>35</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>5.5</v>
+      </c>
+      <c r="H108">
+        <v>15</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J108">
+        <f>(60*I108)/175</f>
+        <v>7.5428571428571427</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>20190730</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="1">
+        <v>36</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <v>5.5</v>
+      </c>
+      <c r="H109">
+        <v>15</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J109">
+        <f>(60*I109)/175</f>
+        <v>7.5428571428571427</v>
       </c>
     </row>
   </sheetData>
